--- a/data/trans_camb/DCD-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>2.154332244631652</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.681414153154476</v>
+        <v>5.681414153154477</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>3.246218645189711</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.492204755341189</v>
+        <v>-1.31837475818925</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.705871564354517</v>
+        <v>2.080596662204585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.587156368870215</v>
+        <v>-3.411794259243106</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.333875553828983</v>
+        <v>-7.519591507463169</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.476098776814642</v>
+        <v>-1.490008783959403</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.178145770796284</v>
+        <v>-1.395034131916018</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.812633415543761</v>
+        <v>6.115425011546758</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.401885615565529</v>
+        <v>9.831792513602483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.36423367621524</v>
+        <v>9.630079339811633</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.698782701742325</v>
+        <v>4.323884693917453</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.766566834953547</v>
+        <v>6.53089288727392</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.521964284076496</v>
+        <v>5.665713192445939</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3183424264174177</v>
+        <v>-0.3233341121190455</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1981986032934182</v>
+        <v>0.2729662450816842</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1703935061028944</v>
+        <v>-0.1606259752498337</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3322663070463045</v>
+        <v>-0.339621315698871</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1232940633610704</v>
+        <v>-0.1100192263949563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0954089820505588</v>
+        <v>-0.1131961895932166</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.708104395238728</v>
+        <v>2.542425312777721</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.363833859883322</v>
+        <v>4.494202081197186</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6995997049709646</v>
+        <v>0.6636441120827813</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3222519746331649</v>
+        <v>0.2995787900919787</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7364023016180102</v>
+        <v>0.7076814797674518</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6094792816051574</v>
+        <v>0.6280736471555062</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-4.432785896077407</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>9.065551313847019</v>
+        <v>9.065551313847015</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.343769695729835</v>
+        <v>-4.353250082103798</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.191123667003851</v>
+        <v>2.433175420676497</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.554005497495</v>
+        <v>-11.16478740140131</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.077319238286647</v>
+        <v>7.579127774712785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.850104107270479</v>
+        <v>-7.049095238874767</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.968624615213961</v>
+        <v>5.89484196297856</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.199064546160662</v>
+        <v>1.250365432080298</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.68986975507592</v>
+        <v>9.876333163710852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.32379337475588</v>
+        <v>-3.203730343978619</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.96010161281404</v>
+        <v>16.80617962949891</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.128958244998015</v>
+        <v>-1.941455147377899</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.93292445560856</v>
+        <v>12.03185985540323</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>-0.4955770172565869</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.8364675337413665</v>
+        <v>0.8364675337413662</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.433110482952562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8857601968202418</v>
+        <v>0.8857601968202415</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5977257676428872</v>
+        <v>-0.6012511813753565</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2714776243510434</v>
+        <v>0.2858971150228602</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6632748672894997</v>
+        <v>-0.6658175394926412</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.475642002522242</v>
+        <v>0.4422736959884149</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5883211681028448</v>
+        <v>-0.5951030257745492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5074323090410189</v>
+        <v>0.4860137529438958</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2874132842434423</v>
+        <v>0.3656381918912531</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.242229925172715</v>
+        <v>2.384471214864245</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2561127027409574</v>
+        <v>-0.2483193515605232</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.35425503086756</v>
+        <v>1.394588246550318</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2320105334216762</v>
+        <v>-0.2044932586312264</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.338559045096599</v>
+        <v>1.365044437142681</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>-0.1891172166171878</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>11.48037743412393</v>
+        <v>11.48037743412392</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.056221960402265</v>
+        <v>-4.021687073842912</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.727766540777131</v>
+        <v>5.083948320033225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.243263762382989</v>
+        <v>-4.854755399627977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.308638689059606</v>
+        <v>7.857097336683358</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.296624264098245</v>
+        <v>-3.337224359039883</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.961175644493289</v>
+        <v>7.777059288243528</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.208969619180021</v>
+        <v>3.241091819099092</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.48496360409795</v>
+        <v>14.07782738494841</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.738812350351359</v>
+        <v>5.672862483223808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.23409110110541</v>
+        <v>18.64872458349162</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.991820545772883</v>
+        <v>2.915242984190749</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.84536020299961</v>
+        <v>14.91156186315382</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>-0.02060894991559217</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.251068135329417</v>
+        <v>1.251068135329416</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5625943850436241</v>
+        <v>-0.5240962070349869</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.5747853342637956</v>
+        <v>0.5713337018039002</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3483695026756813</v>
+        <v>-0.3251301906102912</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5133832478020133</v>
+        <v>0.4304234833068514</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3145547903425362</v>
+        <v>-0.3197752681953154</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6795296853335138</v>
+        <v>0.6756504506091942</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8379003596596186</v>
+        <v>0.9600447990927361</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.919742662875783</v>
+        <v>3.69468705556329</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6021330714096789</v>
+        <v>0.5810574631759825</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.935077981498814</v>
+        <v>1.925404689782454</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4056313844647983</v>
+        <v>0.3929147040574099</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.027884498187296</v>
+        <v>2.031402961776916</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>-0.1635803114274692</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.812222752881242</v>
+        <v>6.812222752881239</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.337465969720262</v>
+        <v>-2.645474101172737</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.137089616924573</v>
+        <v>1.279901542193885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.162382224510482</v>
+        <v>-7.765923327225194</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.820981941452251</v>
+        <v>1.630436347612444</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.833059826564886</v>
+        <v>-3.937603897015876</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.05097988749805</v>
+        <v>2.783084219810661</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.187927249966861</v>
+        <v>5.451051513054545</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.53432204472143</v>
+        <v>10.3599278100853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.806578609656016</v>
+        <v>4.32305370438619</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.86587024123287</v>
+        <v>12.86521342088997</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.333166323406049</v>
+        <v>3.361904031005129</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.32968147055353</v>
+        <v>10.31407404713585</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>-0.01203162589181039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5010512263921654</v>
+        <v>0.5010512263921651</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2644188801361893</v>
+        <v>-0.2947164649797787</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1075014024017302</v>
+        <v>0.1263251388672705</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3498944097199757</v>
+        <v>-0.3486954350509571</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08013800618092796</v>
+        <v>0.06751185102816312</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2477489656530468</v>
+        <v>-0.254427039622256</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1985533239587556</v>
+        <v>0.1768737017982108</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.15972997179528</v>
+        <v>0.9837936124937114</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.886770720460384</v>
+        <v>2.018807349800399</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2208786075253972</v>
+        <v>0.2669587675630432</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8280469123498253</v>
+        <v>0.7752141229646107</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2867880195904152</v>
+        <v>0.2928874261076543</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8835112817665477</v>
+        <v>0.866784190161022</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-11.41031063762496</v>
+        <v>-11.60130224935039</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.50544706469553</v>
+        <v>-11.38608938162455</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-25.17218855809653</v>
+        <v>-24.54086572578982</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-21.07272157651679</v>
+        <v>-21.18354559741236</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-16.12784369657632</v>
+        <v>-16.44714328004005</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-13.70526816096541</v>
+        <v>-13.64392716955008</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.224230589381511</v>
+        <v>0.9336210419309982</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.283901187528887</v>
+        <v>1.686540684350806</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-8.246240278228296</v>
+        <v>-7.333667663855617</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-6.482430576916423</v>
+        <v>-7.661049488553863</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-6.05069815005277</v>
+        <v>-5.43096989856713</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.248410006532754</v>
+        <v>-4.009813150830833</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6573639521621533</v>
+        <v>-0.6675325963579598</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5904592874267268</v>
+        <v>-0.5990671143499334</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6589496507335059</v>
+        <v>-0.6494458335502078</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5535113643991688</v>
+        <v>-0.5474905826247094</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6072157270674217</v>
+        <v>-0.6119425728833059</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5151060511414277</v>
+        <v>-0.5112984579417634</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.142991484396508</v>
+        <v>0.127868232111522</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1422359230063735</v>
+        <v>0.2074787384908444</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2779550660118402</v>
+        <v>-0.2521504981854296</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2327381040060585</v>
+        <v>-0.2479085022959919</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2838943826585635</v>
+        <v>-0.2583868956210544</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.21621809684172</v>
+        <v>-0.190163590012721</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>-2.900668486647209</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16.40222868112417</v>
+        <v>16.40222868112415</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-3.341221236625988</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-9.531391524445832</v>
+        <v>-8.801067338397367</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.71637003592335</v>
+        <v>1.865017702982748</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-9.187459706322798</v>
+        <v>-8.760082750742402</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>9.854371159577999</v>
+        <v>9.98621876835883</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.702775660246362</v>
+        <v>-7.278280287949217</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>7.03484869284902</v>
+        <v>7.364455035058631</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.9647286472631751</v>
+        <v>0.802795477196337</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.51777526570861</v>
+        <v>12.96263938070733</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.983467359936406</v>
+        <v>3.221045382818283</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22.58250002752296</v>
+        <v>22.23359567157162</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.8324486089234973</v>
+        <v>0.6834804786097149</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>15.80491420234883</v>
+        <v>15.94156728179704</v>
       </c>
     </row>
     <row r="37">
@@ -1496,7 +1496,7 @@
         <v>-0.1773024420809624</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>1.002581030586905</v>
+        <v>1.002581030586904</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.2437164123312447</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6651031676700991</v>
+        <v>-0.6255659816824805</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1072797135393709</v>
+        <v>0.1105919532884796</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.465842366088059</v>
+        <v>-0.4485777251270598</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.4878019919219417</v>
+        <v>0.4971693684644969</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4658111526644058</v>
+        <v>-0.4539631657779872</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4352840908709099</v>
+        <v>0.4394648415181741</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1475986486400282</v>
+        <v>0.1157530775890584</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.533118418530494</v>
+        <v>1.685013929346463</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2221109828463569</v>
+        <v>0.2519494784427019</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.707682889283818</v>
+        <v>1.71550514245914</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.08590428031913552</v>
+        <v>0.05830875140101811</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.375887828486384</v>
+        <v>1.426614910930943</v>
       </c>
     </row>
     <row r="40">
@@ -1584,7 +1584,7 @@
         <v>-0.7112231331972974</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>15.71522786639022</v>
+        <v>15.71522786639023</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.9817286551173955</v>
+        <v>-0.694135639600769</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.798032810899652</v>
+        <v>6.663545139235881</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.772839143943424</v>
+        <v>-7.027250762407561</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16.19407258038094</v>
+        <v>16.54422864114493</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.437808001460134</v>
+        <v>-3.029935169291504</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>12.62975751837053</v>
+        <v>12.60525753031576</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.600203232145531</v>
+        <v>5.110218984221617</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.77492484926027</v>
+        <v>13.622447144849</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.6986545378163598</v>
+        <v>0.7208002163835958</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>24.71205377291399</v>
+        <v>24.97720226060378</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1.596171155817298</v>
+        <v>1.602400899174756</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>18.7164370589891</v>
+        <v>18.55282560015122</v>
       </c>
     </row>
     <row r="43">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1391537014528533</v>
+        <v>-0.1104554408285707</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.8808539012894936</v>
+        <v>0.8878783565613292</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.394179125362514</v>
+        <v>-0.3881109290437166</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.8964160867352862</v>
+        <v>0.9341039904859404</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2780659938737653</v>
+        <v>-0.241652224935798</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.024865899163332</v>
+        <v>1.019742586007256</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.9769284634265509</v>
+        <v>1.080655958440298</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.906322003205472</v>
+        <v>2.847410451842883</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.04913986145336462</v>
+        <v>0.06092532463919694</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.824334740403056</v>
+        <v>1.907944098683812</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1727819629962827</v>
+        <v>0.1784381104851214</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.908692616686583</v>
+        <v>1.942046752341596</v>
       </c>
     </row>
     <row r="46">
@@ -1732,19 +1732,19 @@
         <v>1.194904422195949</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>4.818190504669459</v>
+        <v>4.818190504669457</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>-1.804199550173759</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8.763705321488077</v>
+        <v>8.76370532148808</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>-0.3425515378198213</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>6.802772016542527</v>
+        <v>6.80277201654253</v>
       </c>
     </row>
     <row r="47">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.39377332134307</v>
+        <v>-1.070715570624224</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.071863647981067</v>
+        <v>2.392398520337277</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.21114406076738</v>
+        <v>-4.952505668588277</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>5.272022432844128</v>
+        <v>5.137805787685402</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.352792531537017</v>
+        <v>-2.447061241981096</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.608527994121394</v>
+        <v>4.409765911431566</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.521283511689752</v>
+        <v>3.661352831350212</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.414688366529147</v>
+        <v>7.555287286945056</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.418826644300984</v>
+        <v>1.818369937182296</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>12.36545301816764</v>
+        <v>12.05795031300024</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.708993717312488</v>
+        <v>1.915807449052536</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>9.254570186383447</v>
+        <v>8.882981336149504</v>
       </c>
     </row>
     <row r="49">
@@ -1810,19 +1810,19 @@
         <v>0.2198100034415976</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.8863357200296558</v>
+        <v>0.8863357200296555</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>-0.1386462710573195</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.6734593539569889</v>
+        <v>0.6734593539569891</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>-0.036713891874997</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.729105575923489</v>
+        <v>0.7291055759234893</v>
       </c>
     </row>
     <row r="50">
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2151570624317668</v>
+        <v>-0.1682083437259944</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.2792985969533075</v>
+        <v>0.376095665502623</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3565197517709073</v>
+        <v>-0.3378009446754456</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.3592556965744826</v>
+        <v>0.3518107986224429</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2221557037444762</v>
+        <v>-0.2330698072930672</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4360065561849166</v>
+        <v>0.4309554805399251</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8052168821572807</v>
+        <v>0.8501366353685484</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.682168866348467</v>
+        <v>1.865077770459877</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1223280530795344</v>
+        <v>0.164386760631759</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.135290694575574</v>
+        <v>1.08289235536405</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2051520775450123</v>
+        <v>0.2368778818215394</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.113352392728</v>
+        <v>1.088708981487085</v>
       </c>
     </row>
     <row r="52">
@@ -1904,7 +1904,7 @@
         <v>-1.623120289692205</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>8.409848433418151</v>
+        <v>8.409848433418146</v>
       </c>
     </row>
     <row r="53">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.232201393650873</v>
+        <v>-1.18617088400151</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>4.70155729428677</v>
+        <v>4.764184646878266</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-4.854625207941055</v>
+        <v>-5.044958027592652</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>8.702971852983367</v>
+        <v>8.490758422924493</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.81059984553186</v>
+        <v>-2.781091640446527</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>7.195251190727118</v>
+        <v>7.195646792128077</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.256853545662671</v>
+        <v>1.194603304954979</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>7.60271650702819</v>
+        <v>7.670881342050791</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.524402826798539</v>
+        <v>-1.561671291824557</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>12.1416320364916</v>
+        <v>12.15771008080072</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.579703454361862</v>
+        <v>-0.6082907758164003</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>9.555365175340942</v>
+        <v>9.50873116662147</v>
       </c>
     </row>
     <row r="55">
@@ -1982,7 +1982,7 @@
         <v>-0.1402299008111973</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.7265710490742898</v>
+        <v>0.7265710490742894</v>
       </c>
     </row>
     <row r="56">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.166716730380183</v>
+        <v>-0.1655871065381829</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.6473263080347066</v>
+        <v>0.6436424443219085</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2863839731960714</v>
+        <v>-0.2935860445093854</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.5022544179207752</v>
+        <v>0.4896161072926692</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.2325936923730575</v>
+        <v>-0.2306265605117372</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5874729680365396</v>
+        <v>0.5920863100440521</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2031386361776529</v>
+        <v>0.1953994884562348</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.252537991592096</v>
+        <v>1.255737519351547</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.1002419681805461</v>
+        <v>-0.1013068094057838</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7908635320236381</v>
+        <v>0.8027978625562939</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.05152456007786716</v>
+        <v>-0.05315948711015088</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.87248918726303</v>
+        <v>0.8665859716625268</v>
       </c>
     </row>
     <row r="58">
